--- a/data/ImportantDataCompiled-4.xlsx
+++ b/data/ImportantDataCompiled-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarij/Desktop/python-projects/ie394/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{357675BC-7E0F-724B-A4EF-7C3F06322F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BB207718-8128-F644-91B8-42E4A1C9E34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6709,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFDBBCA-A074-2C4E-A9A2-228153D8720C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
